--- a/AIRU_PoE_V2_BOM_SEEED_ALL_PARTS.xlsx
+++ b/AIRU_PoE_V2_BOM_SEEED_ALL_PARTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrygilbert/Documents/EAGLE/projects/AirU_PoE_V3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrygilbert/Desktop/airu-board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC564CEF-FA3A-864D-869A-FE8742550710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E96368C-0F86-6C44-ACFE-C3473D7DE22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{446C8397-6FA5-8C49-8D14-9414FBFDBF08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Designator</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>USB1, USB2</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>AG9900M</t>
+  </si>
+  <si>
+    <t>PoE Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT AVAILABLE FROM SEEED STUDIOS. </t>
   </si>
 </sst>
 </file>
@@ -474,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -499,6 +511,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -814,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEB962-936C-C34D-8BF2-4F4906C1E459}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1500,6 +1513,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" display="https://www.digikey.com/product-detail/en/yageo/RC0603JR-0751RL/311-51GRTR-ND/726803" xr:uid="{57A93ED9-5CAC-8C44-8F7C-6F3D08A1799A}"/>
